--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2545,7 +2545,7 @@
         <v>220</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
         <v>112</v>

--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="287">
   <si>
     <t>name</t>
   </si>
@@ -871,6 +871,12 @@
   </si>
   <si>
     <t>Magallan</t>
+  </si>
+  <si>
+    <t>char_222_bpipe</t>
+  </si>
+  <si>
+    <t>Grani</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1629,6 +1635,9 @@
       <c r="C25" t="s">
         <v>194</v>
       </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
@@ -2545,10 +2554,10 @@
         <v>220</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3535,6 +3544,23 @@
       </c>
       <c r="E137" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="288">
   <si>
     <t>name</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>Grani</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
 </sst>
 </file>
@@ -1209,15 +1212,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1233,8 +1241,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,8 +1261,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1267,8 +1281,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1284,8 +1301,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1301,8 +1321,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1318,8 +1341,11 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1335,8 +1361,11 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1352,8 +1381,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1369,8 +1401,11 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1386,8 +1421,11 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1403,8 +1441,11 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1420,8 +1461,11 @@
       <c r="E12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1437,8 +1481,11 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1454,8 +1501,11 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1471,8 +1521,11 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1488,8 +1541,11 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1505,8 +1561,11 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1522,8 +1581,11 @@
       <c r="E18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1539,8 +1601,11 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1556,8 +1621,11 @@
       <c r="E20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1573,8 +1641,11 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1590,8 +1661,11 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1607,8 +1681,11 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1624,8 +1701,11 @@
       <c r="E24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1641,8 +1721,11 @@
       <c r="E25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1658,8 +1741,11 @@
       <c r="E26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1675,8 +1761,11 @@
       <c r="E27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1692,8 +1781,11 @@
       <c r="E28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1709,8 +1801,11 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1726,8 +1821,11 @@
       <c r="E30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1743,8 +1841,11 @@
       <c r="E31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1760,8 +1861,11 @@
       <c r="E32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1777,8 +1881,11 @@
       <c r="E33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1794,8 +1901,11 @@
       <c r="E34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1811,8 +1921,11 @@
       <c r="E35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1828,8 +1941,11 @@
       <c r="E36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1845,8 +1961,11 @@
       <c r="E37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1862,8 +1981,11 @@
       <c r="E38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1879,8 +2001,11 @@
       <c r="E39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1896,8 +2021,11 @@
       <c r="E40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1913,8 +2041,11 @@
       <c r="E41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1930,8 +2061,11 @@
       <c r="E42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1947,8 +2081,11 @@
       <c r="E43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1964,8 +2101,11 @@
       <c r="E44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1981,8 +2121,11 @@
       <c r="E45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1998,8 +2141,11 @@
       <c r="E46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2015,8 +2161,11 @@
       <c r="E47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2032,8 +2181,11 @@
       <c r="E48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2049,8 +2201,11 @@
       <c r="E49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2066,8 +2221,11 @@
       <c r="E50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2083,8 +2241,11 @@
       <c r="E51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2100,8 +2261,11 @@
       <c r="E52" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2117,8 +2281,11 @@
       <c r="E53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2134,8 +2301,11 @@
       <c r="E54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2151,8 +2321,11 @@
       <c r="E55" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2168,8 +2341,11 @@
       <c r="E56" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2185,8 +2361,11 @@
       <c r="E57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2202,8 +2381,11 @@
       <c r="E58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2219,8 +2401,11 @@
       <c r="E59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2236,8 +2421,11 @@
       <c r="E60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2253,8 +2441,11 @@
       <c r="E61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2270,8 +2461,11 @@
       <c r="E62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2287,8 +2481,11 @@
       <c r="E63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2304,8 +2501,11 @@
       <c r="E64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2321,8 +2521,11 @@
       <c r="E65" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2338,8 +2541,11 @@
       <c r="E66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2355,8 +2561,11 @@
       <c r="E67" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2372,8 +2581,11 @@
       <c r="E68" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2389,8 +2601,11 @@
       <c r="E69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2406,8 +2621,11 @@
       <c r="E70" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2423,8 +2641,11 @@
       <c r="E71" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2440,8 +2661,11 @@
       <c r="E72" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2457,8 +2681,11 @@
       <c r="E73" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2474,8 +2701,11 @@
       <c r="E74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2491,8 +2721,11 @@
       <c r="E75" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2508,8 +2741,11 @@
       <c r="E76" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2525,8 +2761,11 @@
       <c r="E77" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2542,8 +2781,11 @@
       <c r="E78" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2559,8 +2801,11 @@
       <c r="E79" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2576,8 +2821,11 @@
       <c r="E80" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2593,8 +2841,11 @@
       <c r="E81" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2610,8 +2861,11 @@
       <c r="E82" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2627,8 +2881,11 @@
       <c r="E83" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2644,8 +2901,11 @@
       <c r="E84" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2661,8 +2921,11 @@
       <c r="E85" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2678,8 +2941,11 @@
       <c r="E86" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2695,8 +2961,11 @@
       <c r="E87" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2712,8 +2981,11 @@
       <c r="E88" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2729,8 +3001,11 @@
       <c r="E89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2746,8 +3021,11 @@
       <c r="E90" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2763,8 +3041,11 @@
       <c r="E91" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2780,8 +3061,11 @@
       <c r="E92" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2797,8 +3081,11 @@
       <c r="E93" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2814,8 +3101,11 @@
       <c r="E94" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2831,8 +3121,11 @@
       <c r="E95" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2848,8 +3141,11 @@
       <c r="E96" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2865,8 +3161,11 @@
       <c r="E97" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2882,8 +3181,11 @@
       <c r="E98" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2899,8 +3201,11 @@
       <c r="E99" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2916,8 +3221,11 @@
       <c r="E100" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2933,8 +3241,11 @@
       <c r="E101" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2950,8 +3261,11 @@
       <c r="E102" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2967,8 +3281,11 @@
       <c r="E103" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2984,8 +3301,11 @@
       <c r="E104" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3001,8 +3321,11 @@
       <c r="E105" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3018,8 +3341,11 @@
       <c r="E106" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3035,8 +3361,11 @@
       <c r="E107" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3052,8 +3381,11 @@
       <c r="E108" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3069,8 +3401,11 @@
       <c r="E109" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3086,8 +3421,11 @@
       <c r="E110" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3103,8 +3441,11 @@
       <c r="E111" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3120,8 +3461,11 @@
       <c r="E112" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3137,8 +3481,11 @@
       <c r="E113" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3154,8 +3501,11 @@
       <c r="E114" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3171,8 +3521,11 @@
       <c r="E115" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3188,8 +3541,11 @@
       <c r="E116" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3205,8 +3561,11 @@
       <c r="E117" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3222,8 +3581,11 @@
       <c r="E118" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3239,8 +3601,11 @@
       <c r="E119" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3256,8 +3621,11 @@
       <c r="E120" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3273,8 +3641,11 @@
       <c r="E121" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3290,8 +3661,11 @@
       <c r="E122" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3307,8 +3681,11 @@
       <c r="E123" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3324,8 +3701,11 @@
       <c r="E124" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3341,8 +3721,11 @@
       <c r="E125" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3358,8 +3741,11 @@
       <c r="E126" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3375,8 +3761,11 @@
       <c r="E127" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3392,8 +3781,11 @@
       <c r="E128" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3409,8 +3801,11 @@
       <c r="E129" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3426,8 +3821,11 @@
       <c r="E130" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3443,8 +3841,11 @@
       <c r="E131" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3460,8 +3861,11 @@
       <c r="E132" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3477,8 +3881,11 @@
       <c r="E133" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3494,8 +3901,11 @@
       <c r="E134" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3511,8 +3921,11 @@
       <c r="E135" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3528,8 +3941,11 @@
       <c r="E136" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3545,8 +3961,11 @@
       <c r="E137" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3561,6 +3980,9 @@
       </c>
       <c r="E138" t="s">
         <v>112</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3122,7 +3122,7 @@
         <v>143</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3202,7 +3202,7 @@
         <v>151</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3682,7 +3682,7 @@
         <v>201</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6">

--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1822,7 +1822,7 @@
         <v>34</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2742,7 +2742,7 @@
         <v>106</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3002,7 +3002,7 @@
         <v>132</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6">

--- a/ak-collection-tracker/chara-db.xlsx
+++ b/ak-collection-tracker/chara-db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="40" windowWidth="19100" windowHeight="7550"/>
+    <workbookView xWindow="84" yWindow="36" windowWidth="19104" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="chara" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="292">
   <si>
     <t>name</t>
   </si>
@@ -880,6 +880,18 @@
   </si>
   <si>
     <t>server</t>
+  </si>
+  <si>
+    <t>Tsukinogi</t>
+  </si>
+  <si>
+    <t>Asbestos</t>
+  </si>
+  <si>
+    <t>char_343_tknogi</t>
+  </si>
+  <si>
+    <t>char_378_asbest</t>
   </si>
 </sst>
 </file>
@@ -1212,17 +1224,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3983,6 +3995,46 @@
       </c>
       <c r="F138">
         <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>239</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>290</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4009,7 +4061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
